--- a/1店销售情况-1110.xlsx
+++ b/1店销售情况-1110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="963" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="963" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="销售11.02-11.08" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="商品推广11.02-11.08" sheetId="4" r:id="rId4"/>
     <sheet name="商品推广10.25-11.08" sheetId="5" r:id="rId5"/>
     <sheet name="商品推广10.10-11.08" sheetId="6" r:id="rId6"/>
-    <sheet name="展示推11.02-11.08" sheetId="7" r:id="rId7"/>
+    <sheet name="展示推广11.02-11.08" sheetId="7" r:id="rId7"/>
     <sheet name="展示推广10.25-11.08" sheetId="8" r:id="rId8"/>
     <sheet name="展示推广10.10-11.08" sheetId="9" r:id="rId9"/>
     <sheet name="品牌推广11.02-11.08" sheetId="11" r:id="rId10"/>
@@ -11971,7 +11971,7 @@
   <sheetPr/>
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
@@ -35365,8 +35365,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/1店销售情况-1110.xlsx
+++ b/1店销售情况-1110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="963" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="963" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="销售11.02-11.08" sheetId="1" r:id="rId1"/>
@@ -2690,7 +2690,7 @@
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S$1:S$1048576"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7268,7 +7268,7 @@
   <sheetPr/>
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
@@ -17848,8 +17848,8 @@
   <sheetPr/>
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
